--- a/Dokumentation/Kategorien.xlsx
+++ b/Dokumentation/Kategorien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smartbar\Documents\GitHub\Stadt-Land-Vollpfosten-Online\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7405ED-9DDC-4073-A6FB-82DF19FAC165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE4E59B-2E26-4A32-AD3C-ECDFA1AD5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,11 +24,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>Standardversion</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Beruf</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier </t>
+  </si>
+  <si>
+    <t>Marke</t>
+  </si>
+  <si>
+    <t>Rotlicht</t>
+  </si>
+  <si>
+    <t>Sportversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadt </t>
+  </si>
+  <si>
+    <t>Gewässer</t>
+  </si>
+  <si>
+    <t>Sportart</t>
+  </si>
+  <si>
+    <t>Vereinsname</t>
+  </si>
+  <si>
+    <t>Sportmarke</t>
+  </si>
+  <si>
+    <t>Pflanze</t>
+  </si>
+  <si>
+    <t>SportlerIn</t>
+  </si>
+  <si>
+    <t>TrainerIn</t>
+  </si>
+  <si>
+    <t>Sportutensil</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -51,12 +118,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -337,14 +507,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:H10"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentation/Kategorien.xlsx
+++ b/Dokumentation/Kategorien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smartbar\Documents\GitHub\Stadt-Land-Vollpfosten-Online\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56d4792ddc6be58c/Dokumente/HTL/3AHITM/ITP/SS_Projekt/Stadt-Land-Vollpfosten-Online/Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE4E59B-2E26-4A32-AD3C-ECDFA1AD5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{4EE4E59B-2E26-4A32-AD3C-ECDFA1AD5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61362DF-7B28-154A-BBAA-15DD8AEAD301}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Standardversion</t>
   </si>
@@ -79,6 +79,87 @@
   </si>
   <si>
     <t>Sportutensil</t>
+  </si>
+  <si>
+    <t>Pornokategorie</t>
+  </si>
+  <si>
+    <t>Pornodarsteller</t>
+  </si>
+  <si>
+    <t>Sexstellung</t>
+  </si>
+  <si>
+    <t>Sexspielzeug</t>
+  </si>
+  <si>
+    <t>Lask</t>
+  </si>
+  <si>
+    <t>Ehem. Spieler</t>
+  </si>
+  <si>
+    <t>Akt. Spieler</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Verein 1.&amp;2. Bundesliga</t>
+  </si>
+  <si>
+    <t>nimmt man in den Mund</t>
+  </si>
+  <si>
+    <t>ruft man beim Sex</t>
+  </si>
+  <si>
+    <t>Grund für Stadionverbot</t>
+  </si>
+  <si>
+    <t>Dressfarbe</t>
+  </si>
+  <si>
+    <t>Rennsport</t>
+  </si>
+  <si>
+    <t>Streckenname</t>
+  </si>
+  <si>
+    <t>Autohersteller</t>
+  </si>
+  <si>
+    <t>Rennsport-Team</t>
+  </si>
+  <si>
+    <t>Rennfahrer</t>
+  </si>
+  <si>
+    <t>Autoteil</t>
+  </si>
+  <si>
+    <t>Rennserie</t>
+  </si>
+  <si>
+    <t>Haushalt(Frauenversion)</t>
+  </si>
+  <si>
+    <t>Haushaltsgerät</t>
+  </si>
+  <si>
+    <t>Reinigungsmittel</t>
+  </si>
+  <si>
+    <t>Möbelstück</t>
+  </si>
+  <si>
+    <t>Lebensmittel</t>
+  </si>
+  <si>
+    <t>Pflanze im Haushalt</t>
+  </si>
+  <si>
+    <t>Gartengerät</t>
   </si>
 </sst>
 </file>
@@ -199,33 +280,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,153 +589,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="17.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="A21:H22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A17:H18"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A9:H10"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Dokumentation/Kategorien.xlsx
+++ b/Dokumentation/Kategorien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56d4792ddc6be58c/Dokumente/HTL/3AHITM/ITP/SS_Projekt/Stadt-Land-Vollpfosten-Online/Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{4EE4E59B-2E26-4A32-AD3C-ECDFA1AD5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61362DF-7B28-154A-BBAA-15DD8AEAD301}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{4EE4E59B-2E26-4A32-AD3C-ECDFA1AD5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7848085-C58C-0846-98D9-4E11D0D8092D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Standardversion</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>Gartengerät</t>
+  </si>
+  <si>
+    <t>Tierliebhaber</t>
+  </si>
+  <si>
+    <t>Haustier</t>
+  </si>
+  <si>
+    <t>Wildes Tier</t>
+  </si>
+  <si>
+    <t>Tierfutter</t>
+  </si>
+  <si>
+    <t>Nutztier</t>
+  </si>
+  <si>
+    <t>Tierfleisch</t>
+  </si>
+  <si>
+    <t>Kuscheltier</t>
   </si>
 </sst>
 </file>
@@ -587,12 +608,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1CCF1630-0D91-CE4F-A99F-0DEE9AAF762A}">
+  <we:reference id="wa104380263" version="1.1.3.0" store="de-DE" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380263" version="1.1.3.0" store="WA104380263" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="162" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,7 +983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -952,10 +993,70 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="A21:H22"/>
     <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H26"/>
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="A17:H18"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A12:H12"/>
